--- a/BackUp Files/Procesador de Lenguaje/docs/Gramatica Tabular.xlsx
+++ b/BackUp Files/Procesador de Lenguaje/docs/Gramatica Tabular.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/f_bpazos_alumnos_upm_es/Documents/Universidad/3º/Procesadores de Lenguajes/Practica/Procesador de Lenguaje/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/f_bpazos_alumnos_upm_es/Documents/Universidad/3º/Procesadores de Lenguajes/Practica/ProcesadoresLenguajes/BackUp Files/Procesador de Lenguaje/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6365303E-C8B7-4A85-927B-61EB5FD15E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{6365303E-C8B7-4A85-927B-61EB5FD15E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{53818F9B-E441-4019-B09E-F617E7B2B5AB}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1230" windowWidth="7500" windowHeight="11385" xr2:uid="{3FC6893C-53C3-4C1D-BED8-E8075955D697}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FC6893C-53C3-4C1D-BED8-E8075955D697}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>del </t>
   </si>
@@ -148,6 +149,9 @@
   </si>
   <si>
     <t>Z </t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -671,15 +675,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1719CC-B47D-4C87-A5FD-D29A3C6C4483}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="S13" sqref="A1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -732,8 +736,11 @@
       <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -778,8 +785,11 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -806,8 +816,11 @@
       <c r="R3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -832,8 +845,9 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -858,8 +872,9 @@
       <c r="R5" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -884,8 +899,9 @@
       <c r="R6" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -908,8 +924,9 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -932,8 +949,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -958,8 +976,9 @@
       <c r="R9" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -982,8 +1001,9 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1006,8 +1026,9 @@
         <v>39</v>
       </c>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1032,8 +1053,9 @@
         <v>40</v>
       </c>
       <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -1060,6 +1082,7 @@
         <v>40</v>
       </c>
       <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
